--- a/biology/Microbiologie/Ruminococcus_hansenii/Ruminococcus_hansenii.xlsx
+++ b/biology/Microbiologie/Ruminococcus_hansenii/Ruminococcus_hansenii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Blautia hansenii est une espèce de bactéries à gram positif de la famille des Lachnospiraceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,14 +551,50 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Blautia hansenii (Holdeman &amp; Moore 1974) Liu et al. 2008[1]. Le nom de ce taxon a été validé la même année[2].
-Blautia hansenii a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Blautia hansenii (Holdeman &amp; Moore 1974) Liu et al. 2008. Le nom de ce taxon a été validé la même année.
+Blautia hansenii a pour synonymes :
 Ruminococcus hansenii (Holdeman &amp; Moore 1974) Ezaki et al. 1994
-Streptococcus hansenii Holdeman &amp; Moore 1974
-Étymologie
-L'étymologie de l'épithète spécifique de Blautia hansenii est la suivante : han.sen’i.i. N.L. gen. masc. n. hansenii, de Hansen, nommé en l'honneur du bactériologiste américano-danois Poul Arne Hansen (1902-1972)[1].
+Streptococcus hansenii Holdeman &amp; Moore 1974</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ruminococcus_hansenii</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ruminococcus_hansenii</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de l'épithète spécifique de Blautia hansenii est la suivante : han.sen’i.i. N.L. gen. masc. n. hansenii, de Hansen, nommé en l'honneur du bactériologiste américano-danois Poul Arne Hansen (1902-1972).
 </t>
         </is>
       </c>
